--- a/random_method/solutions/solution_40_heterogeneous_evolutionary.xlsx
+++ b/random_method/solutions/solution_40_heterogeneous_evolutionary.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>562.11357984647</v>
+        <v>562.2322953832843</v>
       </c>
     </row>
   </sheetData>
@@ -506,7 +506,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
@@ -518,7 +518,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
@@ -542,7 +542,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S034</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S030</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S001</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S030</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S009</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S038</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
@@ -710,7 +710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S004</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S034</t>
+          <t>S038</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S001</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S004</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S009</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S010</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S010</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>562.11357984647</v>
+        <v>562.2322953832843</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>537.8294680506</v>
+        <v>542.9935939020434</v>
       </c>
     </row>
   </sheetData>
